--- a/data/trans_orig/P17_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P17_R2-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>181052</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>156330</v>
+        <v>158637</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>204952</v>
+        <v>204216</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2612448480970972</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.22557393253053</v>
+        <v>0.2289024244476449</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2957310068481487</v>
+        <v>0.2946695365171995</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>249</v>
@@ -765,19 +765,19 @@
         <v>249435</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>226325</v>
+        <v>225372</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>274730</v>
+        <v>275503</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.362366607579215</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3287934733235591</v>
+        <v>0.3274084209555309</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3991127354527794</v>
+        <v>0.4002355810236717</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>425</v>
@@ -786,19 +786,19 @@
         <v>430487</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>394855</v>
+        <v>397865</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>460805</v>
+        <v>467024</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3116343380161465</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2858402126905681</v>
+        <v>0.2880185639627079</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3335815744696147</v>
+        <v>0.3380836742562378</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>511982</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>488082</v>
+        <v>488818</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>536704</v>
+        <v>534397</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7387551519029028</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7042689931518513</v>
+        <v>0.7053304634828004</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.77442606746947</v>
+        <v>0.7710975755523549</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>447</v>
@@ -836,19 +836,19 @@
         <v>438916</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>413621</v>
+        <v>412848</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>462026</v>
+        <v>462979</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.637633392420785</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6008872645472206</v>
+        <v>0.5997644189763285</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6712065266764409</v>
+        <v>0.6725915790444692</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>953</v>
@@ -857,19 +857,19 @@
         <v>950898</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>920580</v>
+        <v>914361</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>986530</v>
+        <v>983520</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6883656619838535</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6664184255303853</v>
+        <v>0.6619163257437621</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7141597873094319</v>
+        <v>0.7119814360372921</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>210899</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>183349</v>
+        <v>186453</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>239507</v>
+        <v>236654</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2195010304545687</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1908272001841509</v>
+        <v>0.1940575224889677</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2492757104780931</v>
+        <v>0.2463067842314113</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>285</v>
@@ -982,19 +982,19 @@
         <v>305469</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>274826</v>
+        <v>278259</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>335529</v>
+        <v>337104</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3154393787920419</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2837957210391147</v>
+        <v>0.287340619807177</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3464806997033119</v>
+        <v>0.3481064777689809</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>477</v>
@@ -1003,19 +1003,19 @@
         <v>516368</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>470660</v>
+        <v>476079</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>554489</v>
+        <v>555659</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2676587286474952</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2439660674677828</v>
+        <v>0.2467750671979994</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2874185418189831</v>
+        <v>0.2880252576733786</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>749912</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>721304</v>
+        <v>724157</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>777462</v>
+        <v>774358</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7804989695454313</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7507242895219068</v>
+        <v>0.7536932157685886</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8091727998158489</v>
+        <v>0.8059424775110322</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>623</v>
@@ -1053,19 +1053,19 @@
         <v>662924</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>632864</v>
+        <v>631289</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>693567</v>
+        <v>690134</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6845606212079581</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6535193002966879</v>
+        <v>0.6518935222310189</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7162042789608853</v>
+        <v>0.7126593801928229</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1326</v>
@@ -1074,19 +1074,19 @@
         <v>1412836</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1374715</v>
+        <v>1373545</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1458544</v>
+        <v>1453125</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7323412713525047</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7125814581810168</v>
+        <v>0.7119747423266215</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7560339325322156</v>
+        <v>0.7532249328020009</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>184491</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>159781</v>
+        <v>162434</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>208225</v>
+        <v>211224</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2729147872209133</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.236361457824759</v>
+        <v>0.2402873248313475</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3080250590160105</v>
+        <v>0.3124613939558539</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>236</v>
@@ -1199,19 +1199,19 @@
         <v>229831</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>209931</v>
+        <v>204822</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>255749</v>
+        <v>254200</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3360883497967073</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3069881594746017</v>
+        <v>0.299517627971167</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.373988686844496</v>
+        <v>0.3717232280874855</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>417</v>
@@ -1220,19 +1220,19 @@
         <v>414322</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>381594</v>
+        <v>382031</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>447743</v>
+        <v>448816</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.304683681344655</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.28061657529782</v>
+        <v>0.2809374292333244</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3292612217180656</v>
+        <v>0.3300504023387462</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>491510</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>467776</v>
+        <v>464777</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>516220</v>
+        <v>513567</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7270852127790867</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6919749409839895</v>
+        <v>0.6875386060441461</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.763638542175241</v>
+        <v>0.7597126751686525</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>460</v>
@@ -1270,19 +1270,19 @@
         <v>454010</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>428092</v>
+        <v>429641</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>473910</v>
+        <v>479019</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6639116502032927</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6260113131555038</v>
+        <v>0.6282767719125145</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6930118405253983</v>
+        <v>0.7004823720288326</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>918</v>
@@ -1291,19 +1291,19 @@
         <v>945520</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>912099</v>
+        <v>911026</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>978248</v>
+        <v>977811</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.695316318655345</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6707387782819343</v>
+        <v>0.6699495976612537</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7193834247021798</v>
+        <v>0.7190625707666755</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>188082</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>164533</v>
+        <v>163298</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>211168</v>
+        <v>210270</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2006667524965428</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1755418425954409</v>
+        <v>0.174223824908987</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2252972823049803</v>
+        <v>0.2243388682667342</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>253</v>
@@ -1416,19 +1416,19 @@
         <v>258104</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>231065</v>
+        <v>230025</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>285917</v>
+        <v>286251</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2489658743860946</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.222883915455357</v>
+        <v>0.2218812989773803</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2757947009448992</v>
+        <v>0.2761168092242025</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>453</v>
@@ -1437,19 +1437,19 @@
         <v>446186</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>413473</v>
+        <v>413985</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>482842</v>
+        <v>482274</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2260325773218131</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.209460541824561</v>
+        <v>0.2097199001144922</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2446021059149882</v>
+        <v>0.2443141300835042</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>749204</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>726118</v>
+        <v>727016</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>772753</v>
+        <v>773988</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7993332475034571</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7747027176950195</v>
+        <v>0.7756611317332657</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8244581574045591</v>
+        <v>0.825776175091013</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>742</v>
@@ -1487,19 +1487,19 @@
         <v>778600</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>750787</v>
+        <v>750453</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>805639</v>
+        <v>806679</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7510341256139054</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7242052990551008</v>
+        <v>0.7238831907757973</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7771160845446428</v>
+        <v>0.7781187010226196</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1531</v>
@@ -1508,19 +1508,19 @@
         <v>1527804</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1491148</v>
+        <v>1491716</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1560517</v>
+        <v>1560005</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.773967422678187</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7553978940850117</v>
+        <v>0.7556858699164957</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7905394581754389</v>
+        <v>0.7902800998855077</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>764523</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>721727</v>
+        <v>715875</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>817202</v>
+        <v>817496</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2340044288850048</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2209054684831939</v>
+        <v>0.2191141791591646</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2501282406842695</v>
+        <v>0.2502181726111911</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1023</v>
@@ -1633,19 +1633,19 @@
         <v>1042840</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>987748</v>
+        <v>991311</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1097203</v>
+        <v>1096910</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.308780100593371</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2924675709876742</v>
+        <v>0.2935226107439725</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3248768697327278</v>
+        <v>0.324790131369305</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1772</v>
@@ -1654,19 +1654,19 @@
         <v>1807363</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1736591</v>
+        <v>1736810</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1881206</v>
+        <v>1882529</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2720121139120779</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2613607796828196</v>
+        <v>0.2613936706478213</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2831256636917109</v>
+        <v>0.2833248280815198</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2502609</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2449930</v>
+        <v>2449636</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2545405</v>
+        <v>2551257</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7659955711149952</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7498717593157305</v>
+        <v>0.7497818273888088</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7790945315168061</v>
+        <v>0.7808858208408354</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2272</v>
@@ -1704,19 +1704,19 @@
         <v>2334449</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2280086</v>
+        <v>2280379</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2389541</v>
+        <v>2385978</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.691219899406629</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6751231302672726</v>
+        <v>0.675209868630695</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7075324290123257</v>
+        <v>0.7064773892560275</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4728</v>
@@ -1725,19 +1725,19 @@
         <v>4837058</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4763215</v>
+        <v>4761892</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4907830</v>
+        <v>4907611</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7279878860879221</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7168743363082891</v>
+        <v>0.7166751719184803</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7386392203171803</v>
+        <v>0.7386063293521786</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>178168</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>156328</v>
+        <v>154439</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>202650</v>
+        <v>203876</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2536464050198143</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2225530921181185</v>
+        <v>0.2198641567631326</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2884988385466176</v>
+        <v>0.2902452295143595</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>215</v>
@@ -2090,19 +2090,19 @@
         <v>230152</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>205107</v>
+        <v>206537</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>254264</v>
+        <v>256597</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3301793976437641</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2942503753059947</v>
+        <v>0.2963012169254658</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3647718704356808</v>
+        <v>0.3681191311311965</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>388</v>
@@ -2111,19 +2111,19 @@
         <v>408320</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>377033</v>
+        <v>374578</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>443203</v>
+        <v>441853</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.291765846527393</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2694098375786059</v>
+        <v>0.26765575224776</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3166913187772961</v>
+        <v>0.3157266568856041</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>524260</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>499778</v>
+        <v>498552</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>546100</v>
+        <v>547989</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7463535949801857</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7115011614533825</v>
+        <v>0.7097547704856405</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7774469078818815</v>
+        <v>0.7801358432368675</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>435</v>
@@ -2161,19 +2161,19 @@
         <v>466898</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>442786</v>
+        <v>440453</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>491943</v>
+        <v>490513</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6698206023562359</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6352281295643192</v>
+        <v>0.6318808688688033</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7057496246940052</v>
+        <v>0.7036987830745342</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>935</v>
@@ -2182,19 +2182,19 @@
         <v>991158</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>956275</v>
+        <v>957625</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1022445</v>
+        <v>1024900</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7082341534726071</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6833086812227039</v>
+        <v>0.6842733431143958</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7305901624213941</v>
+        <v>0.7323442477522399</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>254594</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>226342</v>
+        <v>227953</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>285216</v>
+        <v>283108</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2503657496948352</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.222582703671517</v>
+        <v>0.2241676176798471</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2804794763691064</v>
+        <v>0.278405810686123</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>304</v>
@@ -2307,19 +2307,19 @@
         <v>335927</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>306182</v>
+        <v>305760</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>367495</v>
+        <v>367380</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3264582623772134</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2975522241185817</v>
+        <v>0.2971419784410924</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3571367616083476</v>
+        <v>0.3570252012447036</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>538</v>
@@ -2328,19 +2328,19 @@
         <v>590520</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>546244</v>
+        <v>551729</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>631824</v>
+        <v>633227</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2886373204681894</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2669955315689561</v>
+        <v>0.2696767723390254</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3088259898842863</v>
+        <v>0.3095114141089468</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>762294</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>731672</v>
+        <v>733780</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>790546</v>
+        <v>788935</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7496342503051648</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7195205236308937</v>
+        <v>0.721594189313877</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7774172963284833</v>
+        <v>0.7758323823201529</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>633</v>
@@ -2378,19 +2378,19 @@
         <v>693077</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>661509</v>
+        <v>661624</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>722822</v>
+        <v>723244</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6735417376227866</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6428632383916524</v>
+        <v>0.6429747987552963</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7024477758814179</v>
+        <v>0.7028580215589074</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1334</v>
@@ -2399,19 +2399,19 @@
         <v>1455371</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1414067</v>
+        <v>1412664</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1499647</v>
+        <v>1494162</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7113626795318106</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6911740101157138</v>
+        <v>0.6904885858910532</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7330044684310439</v>
+        <v>0.7303232276609746</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>189128</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>164937</v>
+        <v>165834</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>218729</v>
+        <v>217843</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2496330775924429</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2177037581446855</v>
+        <v>0.2188866124309669</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2887043488117184</v>
+        <v>0.2875345657171686</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>234</v>
@@ -2524,19 +2524,19 @@
         <v>255407</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>228568</v>
+        <v>228912</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>281644</v>
+        <v>284024</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3286353691125323</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2941008341273047</v>
+        <v>0.2945438682829354</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3623946232652438</v>
+        <v>0.3654570650359372</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>404</v>
@@ -2545,19 +2545,19 @@
         <v>444535</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>409433</v>
+        <v>404193</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>485439</v>
+        <v>481678</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2896374003663629</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2667668960994242</v>
+        <v>0.2633527776139499</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3162887735460695</v>
+        <v>0.3138381677779712</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>568495</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>538894</v>
+        <v>539780</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>592686</v>
+        <v>591789</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7503669224075571</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7112956511882818</v>
+        <v>0.7124654342828312</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7822962418553145</v>
+        <v>0.781113387569033</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>471</v>
@@ -2595,19 +2595,19 @@
         <v>521767</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>495530</v>
+        <v>493150</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>548606</v>
+        <v>548262</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6713646308874677</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6376053767347563</v>
+        <v>0.6345429349640629</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7058991658726953</v>
+        <v>0.7054561317170646</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>990</v>
@@ -2616,19 +2616,19 @@
         <v>1090262</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1049358</v>
+        <v>1053119</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1125364</v>
+        <v>1130604</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.710362599633637</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6837112264539305</v>
+        <v>0.6861618322220286</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7332331039005757</v>
+        <v>0.7366472223860497</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>246183</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>219478</v>
+        <v>216826</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>276763</v>
+        <v>273091</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2597583282105727</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2315811159819411</v>
+        <v>0.2287827670444969</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2920242732580384</v>
+        <v>0.2881496513029748</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>337</v>
@@ -2741,19 +2741,19 @@
         <v>352479</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>324639</v>
+        <v>321885</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>389942</v>
+        <v>384416</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3350875619503744</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3086211108945384</v>
+        <v>0.3060028722991895</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3707019263764652</v>
+        <v>0.3654487039150513</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>574</v>
@@ -2762,19 +2762,19 @@
         <v>598662</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>557695</v>
+        <v>558494</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>639100</v>
+        <v>643140</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2993849019218224</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2788975557027831</v>
+        <v>0.2792974788725697</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3196073668702033</v>
+        <v>0.321627920431417</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>701556</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>670976</v>
+        <v>674648</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>728261</v>
+        <v>730913</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7402416717894272</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7079757267419616</v>
+        <v>0.7118503486970252</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.768418884018059</v>
+        <v>0.7712172329555034</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>666</v>
@@ -2812,19 +2812,19 @@
         <v>699422</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>661959</v>
+        <v>667485</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>727262</v>
+        <v>730016</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6649124380496256</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6292980736235347</v>
+        <v>0.6345512960849486</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6913788891054615</v>
+        <v>0.6939971277008106</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1339</v>
@@ -2833,19 +2833,19 @@
         <v>1400978</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1360540</v>
+        <v>1356500</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1441945</v>
+        <v>1441146</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7006150980781776</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6803926331297969</v>
+        <v>0.6783720795685829</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7211024442972169</v>
+        <v>0.7207025211274302</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>868073</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>811779</v>
+        <v>819320</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>921071</v>
+        <v>920532</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2534758377866184</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2370380297271263</v>
+        <v>0.2392399992358359</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2689511661539403</v>
+        <v>0.2687936642030714</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1090</v>
@@ -2958,19 +2958,19 @@
         <v>1173964</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1117477</v>
+        <v>1118463</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1231754</v>
+        <v>1235012</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3302170509784438</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3143281217290033</v>
+        <v>0.3146055158208376</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3464724725503265</v>
+        <v>0.3473887387000231</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1904</v>
@@ -2979,19 +2979,19 @@
         <v>2042037</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1965044</v>
+        <v>1964903</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2115132</v>
+        <v>2119409</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.292563578229609</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2815326896685631</v>
+        <v>0.2815125768653552</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3030359294919824</v>
+        <v>0.3036487208804837</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2556605</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2503607</v>
+        <v>2504146</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2612899</v>
+        <v>2605358</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7465241622133816</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7310488338460593</v>
+        <v>0.7312063357969283</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7629619702728736</v>
+        <v>0.7607600007641639</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2205</v>
@@ -3029,19 +3029,19 @@
         <v>2381165</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2323375</v>
+        <v>2320117</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2437652</v>
+        <v>2436666</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6697829490215562</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6535275274496736</v>
+        <v>0.6526112612999769</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6856718782709967</v>
+        <v>0.6853944841791625</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4598</v>
@@ -3050,19 +3050,19 @@
         <v>4937770</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4864675</v>
+        <v>4860398</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5014763</v>
+        <v>5014904</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7074364217703909</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6969640705080177</v>
+        <v>0.6963512791195166</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.718467310331437</v>
+        <v>0.718487423134645</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>86963</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>70070</v>
+        <v>70410</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>106524</v>
+        <v>104816</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1288721195639685</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1038384941170985</v>
+        <v>0.1043425926229963</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1578601733303966</v>
+        <v>0.155328768791113</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>121</v>
@@ -3415,19 +3415,19 @@
         <v>121190</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>101506</v>
+        <v>101245</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>142373</v>
+        <v>141417</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1813736244501358</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1519148421367651</v>
+        <v>0.1515243320318894</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2130769470547276</v>
+        <v>0.2116460138756479</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>204</v>
@@ -3436,19 +3436,19 @@
         <v>208153</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>183380</v>
+        <v>181939</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>236921</v>
+        <v>235702</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1549934201037413</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1365476849058136</v>
+        <v>0.1354747103951029</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1764145604075435</v>
+        <v>0.1755068003599544</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>587837</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>568276</v>
+        <v>569984</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>604730</v>
+        <v>604390</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8711278804360315</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8421398266696034</v>
+        <v>0.844671231208887</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8961615058829017</v>
+        <v>0.8956574073770037</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>540</v>
@@ -3486,19 +3486,19 @@
         <v>546987</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>525804</v>
+        <v>526760</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>566671</v>
+        <v>566932</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8186263755498642</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7869230529452724</v>
+        <v>0.7883539861243521</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8480851578632349</v>
+        <v>0.8484756679681106</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1109</v>
@@ -3507,19 +3507,19 @@
         <v>1134824</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1106056</v>
+        <v>1107275</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1159597</v>
+        <v>1161038</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8450065798962587</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8235854395924567</v>
+        <v>0.8244931996400456</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8634523150941866</v>
+        <v>0.8645252896048972</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>168213</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>145535</v>
+        <v>144827</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>193637</v>
+        <v>194557</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1646960192782092</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1424923968063814</v>
+        <v>0.1417985711920566</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1895886588565847</v>
+        <v>0.1904893009112687</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>233</v>
@@ -3632,19 +3632,19 @@
         <v>244086</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>214777</v>
+        <v>218901</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>271290</v>
+        <v>272042</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2346175007938107</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2064452937250078</v>
+        <v>0.2104094163710146</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2607658379708677</v>
+        <v>0.2614886706270029</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>387</v>
@@ -3653,19 +3653,19 @@
         <v>412299</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>377265</v>
+        <v>375344</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>450834</v>
+        <v>449318</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1999789797138883</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1829863618768287</v>
+        <v>0.1820546072740516</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2186698010708923</v>
+        <v>0.2179346533158032</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>853142</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>827718</v>
+        <v>826798</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>875820</v>
+        <v>876528</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8353039807217908</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8104113411434153</v>
+        <v>0.8095106990887313</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8575076031936185</v>
+        <v>0.8582014288079434</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>742</v>
@@ -3703,19 +3703,19 @@
         <v>796271</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>769067</v>
+        <v>768315</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>825580</v>
+        <v>821456</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7653824992061894</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7392341620291323</v>
+        <v>0.7385113293729982</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.793554706274992</v>
+        <v>0.7895905836289855</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1538</v>
@@ -3724,19 +3724,19 @@
         <v>1649413</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1610878</v>
+        <v>1612394</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1684447</v>
+        <v>1686368</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8000210202861117</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7813301989291078</v>
+        <v>0.782065346684196</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8170136381231714</v>
+        <v>0.8179453927259482</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>189788</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>167176</v>
+        <v>166610</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>215215</v>
+        <v>217020</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.252050492297007</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2220200904860554</v>
+        <v>0.2212679566294265</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2858187797798329</v>
+        <v>0.2882163283496831</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>201</v>
@@ -3849,19 +3849,19 @@
         <v>212964</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>187124</v>
+        <v>187295</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>239665</v>
+        <v>237975</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2716281288443431</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2386700801912232</v>
+        <v>0.2388888552879286</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3056855836640519</v>
+        <v>0.3035297609641141</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>377</v>
@@ -3870,19 +3870,19 @@
         <v>402752</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>368603</v>
+        <v>369620</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>437694</v>
+        <v>438151</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2620370542402692</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.23981890819381</v>
+        <v>0.2404807129735669</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2847710344598243</v>
+        <v>0.2850680105605177</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>563189</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>537762</v>
+        <v>535957</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>585801</v>
+        <v>586367</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7479495077029931</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7141812202201672</v>
+        <v>0.7117836716503169</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7779799095139446</v>
+        <v>0.7787320433705734</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>534</v>
@@ -3920,19 +3920,19 @@
         <v>571062</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>544361</v>
+        <v>546051</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>596902</v>
+        <v>596731</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7283718711556569</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6943144163359481</v>
+        <v>0.6964702390358861</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7613299198087768</v>
+        <v>0.7611111447120713</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1048</v>
@@ -3941,19 +3941,19 @@
         <v>1134252</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1099310</v>
+        <v>1098853</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1168401</v>
+        <v>1167384</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7379629457597308</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7152289655401756</v>
+        <v>0.7149319894394822</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7601810918061899</v>
+        <v>0.7595192870264328</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>169869</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>148136</v>
+        <v>148600</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>195253</v>
+        <v>196579</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1814082324712916</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1581982782294105</v>
+        <v>0.1586946222298434</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2085160855422038</v>
+        <v>0.2099318977100487</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>219</v>
@@ -4066,19 +4066,19 @@
         <v>233229</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>206243</v>
+        <v>206481</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>265064</v>
+        <v>262991</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2244999817573304</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1985241697933541</v>
+        <v>0.1987528965530009</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2551437108556558</v>
+        <v>0.2531476880552594</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>385</v>
@@ -4087,19 +4087,19 @@
         <v>403098</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>368262</v>
+        <v>368404</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>441508</v>
+        <v>440766</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2040720598131772</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1864356735333069</v>
+        <v>0.1865077557915934</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2235173975632921</v>
+        <v>0.2231418242920645</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>766523</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>741139</v>
+        <v>739813</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>788256</v>
+        <v>787792</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8185917675287084</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7914839144577963</v>
+        <v>0.7900681022899518</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8418017217705894</v>
+        <v>0.8413053777701567</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>735</v>
@@ -4137,19 +4137,19 @@
         <v>805654</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>773819</v>
+        <v>775892</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>832640</v>
+        <v>832402</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7755000182426697</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7448562891443442</v>
+        <v>0.7468523119447407</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8014758302066455</v>
+        <v>0.8012471034469991</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1500</v>
@@ -4158,19 +4158,19 @@
         <v>1572176</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1533766</v>
+        <v>1534508</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1607012</v>
+        <v>1606870</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7959279401868228</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7764826024367077</v>
+        <v>0.7768581757079361</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.813564326466692</v>
+        <v>0.8134922442084068</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>614833</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>571287</v>
+        <v>570234</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>665469</v>
+        <v>662767</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1816065900647685</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1687439895410556</v>
+        <v>0.1684329343424488</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1965631498631145</v>
+        <v>0.1957649811592314</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>774</v>
@@ -4283,19 +4283,19 @@
         <v>811468</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>761738</v>
+        <v>766613</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>862173</v>
+        <v>864745</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2297837942459876</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2157015252801542</v>
+        <v>0.217082083715074</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2441419355532367</v>
+        <v>0.2448701180884446</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1353</v>
@@ -4304,19 +4304,19 @@
         <v>1426302</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1361935</v>
+        <v>1361163</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1494991</v>
+        <v>1494849</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2062033623919285</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1968977150083683</v>
+        <v>0.1967861642297065</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2161339542775668</v>
+        <v>0.2161133260893609</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2770691</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2720055</v>
+        <v>2722757</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2814237</v>
+        <v>2815290</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8183934099352316</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8034368501368855</v>
+        <v>0.8042350188407685</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8312560104589442</v>
+        <v>0.831567065657551</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2551</v>
@@ -4354,19 +4354,19 @@
         <v>2719975</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2669270</v>
+        <v>2666698</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2769705</v>
+        <v>2764830</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7702162057540124</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7558580644467633</v>
+        <v>0.7551298819115554</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7842984747198458</v>
+        <v>0.782917916284926</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5195</v>
@@ -4375,19 +4375,19 @@
         <v>5490665</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5421976</v>
+        <v>5422118</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5555032</v>
+        <v>5555804</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7937966376080715</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7838660457224331</v>
+        <v>0.7838866739106388</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8031022849916317</v>
+        <v>0.8032138357702934</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>60022</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>43577</v>
+        <v>44526</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>82217</v>
+        <v>84045</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08706286195996076</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06320873928895986</v>
+        <v>0.06458514051116018</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1192579862717502</v>
+        <v>0.1219090315474727</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>149</v>
@@ -4740,19 +4740,19 @@
         <v>110126</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>93126</v>
+        <v>94663</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>131481</v>
+        <v>129511</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1502904594114531</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1270902485251466</v>
+        <v>0.1291888306700626</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1794346140346919</v>
+        <v>0.1767457299904823</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>198</v>
@@ -4761,19 +4761,19 @@
         <v>170148</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>144755</v>
+        <v>145689</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>197134</v>
+        <v>199491</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.119640169133082</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.101785137745311</v>
+        <v>0.1024418399409813</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1386158157838893</v>
+        <v>0.1402733346669008</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>629386</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>607191</v>
+        <v>605363</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>645831</v>
+        <v>644882</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9129371380400392</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8807420137282499</v>
+        <v>0.8780909684525264</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9367912607110396</v>
+        <v>0.9354148594888395</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1089</v>
@@ -4811,19 +4811,19 @@
         <v>622626</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>601271</v>
+        <v>603241</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>639626</v>
+        <v>638089</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.849709540588547</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8205653859653081</v>
+        <v>0.8232542700095178</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8729097514748534</v>
+        <v>0.8708111693299376</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1769</v>
@@ -4832,19 +4832,19 @@
         <v>1252013</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1225027</v>
+        <v>1222670</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1277406</v>
+        <v>1276472</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.880359830866918</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8613841842161105</v>
+        <v>0.8597266653330994</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8982148622546891</v>
+        <v>0.8975581600590188</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>160176</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>133763</v>
+        <v>131717</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>188004</v>
+        <v>193244</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1532353743640821</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1279671910188204</v>
+        <v>0.1260100467011889</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.179858161821565</v>
+        <v>0.184871240318453</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>277</v>
@@ -4957,19 +4957,19 @@
         <v>216887</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>195327</v>
+        <v>192761</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>243614</v>
+        <v>240693</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2030793523610479</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1828921988799302</v>
+        <v>0.1804889968215789</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.228104713044734</v>
+        <v>0.2253697220056173</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>398</v>
@@ -4978,19 +4978,19 @@
         <v>377063</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>339052</v>
+        <v>344352</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>411597</v>
+        <v>418149</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1784250624339169</v>
+        <v>0.1784250624339168</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1604384448423565</v>
+        <v>0.1629465947842654</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1947665904908665</v>
+        <v>0.1978668059648963</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>885116</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>857288</v>
+        <v>852048</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>911529</v>
+        <v>913575</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8467646256359178</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8201418381784352</v>
+        <v>0.815128759681547</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8720328089811796</v>
+        <v>0.8739899532988116</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1235</v>
@@ -5028,19 +5028,19 @@
         <v>851104</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>824377</v>
+        <v>827298</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>872664</v>
+        <v>875230</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.796920647638952</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7718952869552659</v>
+        <v>0.7746302779943828</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8171078011200698</v>
+        <v>0.8195110031784212</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2075</v>
@@ -5049,19 +5049,19 @@
         <v>1736220</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1701686</v>
+        <v>1695134</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1774231</v>
+        <v>1768931</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8215749375660831</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8052334095091335</v>
+        <v>0.8021331940351037</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8395615551576434</v>
+        <v>0.8370534052157347</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>163728</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>140231</v>
+        <v>141212</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>192560</v>
+        <v>191997</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2044364227625541</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1750982687508711</v>
+        <v>0.176322982781242</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2404371322149941</v>
+        <v>0.2397348058056006</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>286</v>
@@ -5174,19 +5174,19 @@
         <v>234449</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>211874</v>
+        <v>211917</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>259046</v>
+        <v>259709</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.289504096844989</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2616278908570161</v>
+        <v>0.2616806787864995</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3198776430726599</v>
+        <v>0.3206956062356568</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>425</v>
@@ -5195,19 +5195,19 @@
         <v>398176</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>366196</v>
+        <v>363437</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>436172</v>
+        <v>435827</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2472067753292293</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2273519571591397</v>
+        <v>0.225639141627028</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2707960968520652</v>
+        <v>0.2705819526400913</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>637145</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>608313</v>
+        <v>608876</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>660642</v>
+        <v>659661</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.795563577237446</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.759562867785006</v>
+        <v>0.7602651941943993</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8249017312491289</v>
+        <v>0.823677017218758</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>759</v>
@@ -5245,19 +5245,19 @@
         <v>575380</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>550783</v>
+        <v>550120</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>597955</v>
+        <v>597912</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7104959031550111</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6801223569273402</v>
+        <v>0.679304393764343</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7383721091429839</v>
+        <v>0.7383193212135004</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1294</v>
@@ -5266,19 +5266,19 @@
         <v>1212526</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1174530</v>
+        <v>1174875</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1244506</v>
+        <v>1247265</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7527932246707708</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7292039031479347</v>
+        <v>0.7294180473599085</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7726480428408602</v>
+        <v>0.774360858372972</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>137018</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>114809</v>
+        <v>113603</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>161725</v>
+        <v>158523</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1390267138090538</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1164922223320961</v>
+        <v>0.1152679564256838</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1640958253291541</v>
+        <v>0.1608465086172007</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>257</v>
@@ -5391,19 +5391,19 @@
         <v>187806</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>166501</v>
+        <v>167728</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>210886</v>
+        <v>210944</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1685132280451286</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1493964056858843</v>
+        <v>0.1504976477109505</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1892224587259206</v>
+        <v>0.1892740347990015</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>393</v>
@@ -5412,19 +5412,19 @@
         <v>324824</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>295308</v>
+        <v>296040</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>358317</v>
+        <v>359244</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1546751345061205</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1406198487194789</v>
+        <v>0.1409686455945309</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1706236396569717</v>
+        <v>0.1710652350719542</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>848537</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>823830</v>
+        <v>827032</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>870746</v>
+        <v>871952</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.860973286190946</v>
+        <v>0.8609732861909463</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8359041746708459</v>
+        <v>0.8391534913827996</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8835077776679038</v>
+        <v>0.8847320435743162</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1298</v>
@@ -5462,19 +5462,19 @@
         <v>926682</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>903602</v>
+        <v>903544</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>947987</v>
+        <v>946760</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8314867719548714</v>
+        <v>0.8314867719548713</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8107775412740789</v>
+        <v>0.8107259652009986</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8506035943141158</v>
+        <v>0.8495023522890494</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2164</v>
@@ -5483,19 +5483,19 @@
         <v>1775219</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1741726</v>
+        <v>1740799</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1804735</v>
+        <v>1804003</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8453248654938795</v>
+        <v>0.8453248654938794</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8293763603430283</v>
+        <v>0.8289347649280463</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8593801512805214</v>
+        <v>0.8590313544054691</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>520944</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>472693</v>
+        <v>469208</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>572748</v>
+        <v>568966</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1479479255598124</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1342447024746851</v>
+        <v>0.1332550997976604</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1626605165857238</v>
+        <v>0.1615861505323511</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>969</v>
@@ -5608,19 +5608,19 @@
         <v>749267</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>704891</v>
+        <v>702785</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>794118</v>
+        <v>792189</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2011423598591291</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1892294598408788</v>
+        <v>0.1886639660748994</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.213182609297781</v>
+        <v>0.2126647755040108</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1414</v>
@@ -5629,19 +5629,19 @@
         <v>1270211</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1209314</v>
+        <v>1210512</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1337781</v>
+        <v>1341115</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1752936792835446</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1668896754331169</v>
+        <v>0.1670549882563795</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1846186326104662</v>
+        <v>0.1850787027935939</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3000184</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2948380</v>
+        <v>2952162</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3048435</v>
+        <v>3051920</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8520520744401876</v>
+        <v>0.8520520744401877</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8373394834142756</v>
+        <v>0.8384138494676489</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8657552975253147</v>
+        <v>0.8667449002023394</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4381</v>
@@ -5679,19 +5679,19 @@
         <v>2975793</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2930942</v>
+        <v>2932871</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3020169</v>
+        <v>3022275</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.798857640140871</v>
+        <v>0.7988576401408709</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7868173907022191</v>
+        <v>0.7873352244959891</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8107705401591214</v>
+        <v>0.8113360339251007</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7302</v>
@@ -5700,19 +5700,19 @@
         <v>5975977</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5908407</v>
+        <v>5905073</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6036874</v>
+        <v>6035676</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8247063207164554</v>
+        <v>0.8247063207164553</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8153813673895337</v>
+        <v>0.8149212972064062</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8331103245668831</v>
+        <v>0.8329450117436206</v>
       </c>
     </row>
     <row r="18">
